--- a/docs/StructureDefinition-VA.MHV.PHR.lab.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.lab.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-23T08:33:50-06:00</t>
+    <t>2022-12-23T15:55:29-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -261,7 +261,7 @@
     <t>Mapping: SNOMED CT Attribute Binding</t>
   </si>
   <si>
-    <t>Mapping: VIA/VDIF to MHV-PHR</t>
+    <t>Mapping: VDIF to MHV-PHR</t>
   </si>
   <si>
     <t>Vital Signs
